--- a/StructureDefinition-mp4p-medikation.xlsx
+++ b/StructureDefinition-mp4p-medikation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T09:40:17+00:00</t>
+    <t>2021-12-01T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medikation.xlsx
+++ b/StructureDefinition-mp4p-medikation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T11:34:04+00:00</t>
+    <t>2021-12-06T15:13:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medikation.xlsx
+++ b/StructureDefinition-mp4p-medikation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="414">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-06T15:13:20+00:00</t>
+    <t>2021-12-08T18:19:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -274,6 +274,9 @@
     <t>ManufacturedProduct[classCode=ADMM]</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>Medication.id</t>
   </si>
   <si>
@@ -649,10 +652,10 @@
 </t>
   </si>
   <si>
-    <t>PZN-Code des Medikamentes</t>
-  </si>
-  <si>
-    <t>Die Verwendung von PZN ist verpflichtent, die Codes können jedoch nicht validiert werden, da der gesamte Katalog der Codes nicht vorliegt.</t>
+    <t>Codes that identify this medication</t>
+  </si>
+  <si>
+    <t>A code (or set of codes) that specify this medication, or a textual description if no code is available. Usage note: This could be a standard medication code such as a code from RxNorm, SNOMED CT, IDMP etc. It could also be a national or local formulary code, optionally with translations to other code systems.</t>
   </si>
   <si>
     <t>Depending on the context of use, the code that was actually selected by the user (prescriber, dispenser, etc.) will have the coding.userSelected set to true.  As described in the coding datatype: "A coding may be marked as a "userSelected" if a user selected the particular coded value in a user interface (e.g. the user selects an item in a pick-list). If a user selected coding exists, it is the preferred choice for performing translations etc. Other codes can only be literal translations to alternative code systems, or codes at a lower level of granularity (e.g. a generic code for a vendor-specific primary one).</t>
@@ -689,7 +692,7 @@
     <t>Medication.code.coding</t>
   </si>
   <si>
-    <t>PZN-Nummer (@p)</t>
+    <t>Code defined by a terminology system</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
@@ -715,9 +718,6 @@
   </si>
   <si>
     <t>Pharmazentralnummer</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -779,7 +779,7 @@
     <t>Medication.code.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
+    <t>Pharmazentralnummer (PZN)</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -797,10 +797,13 @@
     <t>C*E.1</t>
   </si>
   <si>
+    <t>M@p</t>
+  </si>
+  <si>
     <t>Medication.code.coding.display</t>
   </si>
   <si>
-    <t>Handelsname</t>
+    <t>Handelsname aus PZN abgeleitet</t>
   </si>
   <si>
     <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
@@ -816,6 +819,9 @@
   </si>
   <si>
     <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>M@a</t>
   </si>
   <si>
     <t>Medication.code.coding.userSelected</t>
@@ -849,7 +855,7 @@
     <t>Medication.code.text</t>
   </si>
   <si>
-    <t>Handelsname (@a)</t>
+    <t>Plain text representation of the concept</t>
   </si>
   <si>
     <t>Handelsname des Medikamentes als Freitexteingabe (ohne PZN-Code) oder als von code.coding.display (Handelsname laut PZN) abweichender Handelsname</t>
@@ -983,6 +989,9 @@
     <t>Medication.form.coding.code</t>
   </si>
   <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
     <t>Medication.form.coding.display</t>
   </si>
   <si>
@@ -1003,13 +1012,19 @@
     <t>https://fhir.kbv.de/ValueSet/KBV_VS_MIO_NFD_S_KBV_DOSAGE_FORM</t>
   </si>
   <si>
+    <t>M@f</t>
+  </si>
+  <si>
     <t>Medication.form.text</t>
   </si>
   <si>
-    <t>Darreichungsform als Freitext (@fd)</t>
+    <t>Darreichungsform als Freitext</t>
   </si>
   <si>
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>M@fd</t>
   </si>
   <si>
     <t>Medication.amount</t>
@@ -1035,7 +1050,7 @@
 </t>
   </si>
   <si>
-    <t>Wirkstoff (W)</t>
+    <t>Wirkstoff</t>
   </si>
   <si>
     <t>Identifies a particular constituent of interest in the product.</t>
@@ -1045,6 +1060,9 @@
   </si>
   <si>
     <t>.scopesRole[typeCode=INGR]</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>Medication.ingredient.id</t>
@@ -1139,6 +1157,9 @@
     <t>Medication.ingredient.item[x].coding.display</t>
   </si>
   <si>
+    <t>W@w</t>
+  </si>
+  <si>
     <t>Medication.ingredient.item[x].coding.userSelected</t>
   </si>
   <si>
@@ -1156,9 +1177,6 @@
     <t>Medication.ingredient.item[x].text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
     <t>Medication.ingredient.isActive</t>
   </si>
   <si>
@@ -1188,6 +1206,9 @@
   </si>
   <si>
     <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
+  </si>
+  <si>
+    <t>W@s</t>
   </si>
   <si>
     <t>Medication.ingredient.strength.id</t>
@@ -1886,12 +1907,12 @@
         <v>75</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1902,28 +1923,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1973,13 +1994,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -2005,7 +2026,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2016,25 +2037,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2085,19 +2106,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -2117,7 +2138,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2128,7 +2149,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -2140,13 +2161,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2197,13 +2218,13 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -2215,7 +2236,7 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>75</v>
@@ -2229,11 +2250,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2252,16 +2273,16 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2299,19 +2320,19 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2323,13 +2344,13 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>75</v>
@@ -2343,7 +2364,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2354,7 +2375,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -2363,19 +2384,19 @@
         <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2425,19 +2446,19 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -2457,7 +2478,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2468,7 +2489,7 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -2477,19 +2498,19 @@
         <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2539,19 +2560,19 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
@@ -2571,7 +2592,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2582,7 +2603,7 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
@@ -2591,19 +2612,19 @@
         <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2653,19 +2674,19 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
@@ -2685,7 +2706,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2699,25 +2720,25 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2767,7 +2788,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2779,7 +2800,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -2799,7 +2820,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2819,19 +2840,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2857,13 +2878,13 @@
         <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>75</v>
@@ -2881,7 +2902,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2893,7 +2914,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -2913,7 +2934,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2933,19 +2954,19 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2971,13 +2992,13 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>75</v>
@@ -2995,7 +3016,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3007,7 +3028,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -3027,7 +3048,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3038,28 +3059,28 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3109,19 +3130,19 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
@@ -3141,7 +3162,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3152,10 +3173,10 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -3164,16 +3185,16 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3199,13 +3220,13 @@
         <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>75</v>
@@ -3223,19 +3244,19 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -3255,18 +3276,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>75</v>
@@ -3278,16 +3299,16 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3337,25 +3358,25 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3369,11 +3390,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3392,16 +3413,16 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3451,7 +3472,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3469,7 +3490,7 @@
         <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3483,11 +3504,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3506,16 +3527,16 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3565,7 +3586,7 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3577,13 +3598,13 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3597,11 +3618,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3614,25 +3635,25 @@
         <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -3681,7 +3702,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3693,13 +3714,13 @@
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3713,7 +3734,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3733,19 +3754,19 @@
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3795,7 +3816,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3807,16 +3828,16 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3827,7 +3848,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3835,31 +3856,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3885,13 +3906,13 @@
         <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>75</v>
@@ -3909,31 +3930,31 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>75</v>
@@ -3941,7 +3962,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3952,7 +3973,7 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>75</v>
@@ -3964,13 +3985,13 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4021,13 +4042,13 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
@@ -4039,7 +4060,7 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -4053,11 +4074,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4076,16 +4097,16 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4123,19 +4144,19 @@
         <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4147,13 +4168,13 @@
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -4167,7 +4188,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4175,34 +4196,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>75</v>
@@ -4239,17 +4260,17 @@
         <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4261,19 +4282,19 @@
         <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4281,44 +4302,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>75</v>
@@ -4367,7 +4388,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4379,19 +4400,19 @@
         <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4410,7 +4431,7 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>75</v>
@@ -4422,13 +4443,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4479,13 +4500,13 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
@@ -4497,7 +4518,7 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4515,7 +4536,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4534,16 +4555,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4581,19 +4602,19 @@
         <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4605,13 +4626,13 @@
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4633,22 +4654,22 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>227</v>
@@ -4715,13 +4736,13 @@
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>75</v>
@@ -4752,7 +4773,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>75</v>
@@ -4761,10 +4782,10 @@
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>235</v>
@@ -4829,13 +4850,13 @@
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>75</v>
@@ -4863,22 +4884,22 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>242</v>
@@ -4943,13 +4964,13 @@
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>75</v>
@@ -4964,12 +4985,12 @@
         <v>247</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>75</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4980,29 +5001,29 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>75</v>
@@ -5051,39 +5072,39 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5094,7 +5115,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>75</v>
@@ -5103,22 +5124,22 @@
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>75</v>
@@ -5167,31 +5188,31 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>75</v>
@@ -5199,7 +5220,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5210,31 +5231,31 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>75</v>
@@ -5283,39 +5304,39 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5326,28 +5347,28 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5373,13 +5394,13 @@
         <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>75</v>
@@ -5397,25 +5418,25 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5429,7 +5450,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5440,7 +5461,7 @@
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>75</v>
@@ -5449,16 +5470,16 @@
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5509,31 +5530,31 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5541,7 +5562,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5552,10 +5573,10 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5564,16 +5585,16 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5599,13 +5620,13 @@
         <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>75</v>
@@ -5623,31 +5644,31 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5655,7 +5676,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5666,7 +5687,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>75</v>
@@ -5678,13 +5699,13 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5735,13 +5756,13 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
@@ -5753,7 +5774,7 @@
         <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5767,11 +5788,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5790,16 +5811,16 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5837,19 +5858,19 @@
         <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5861,13 +5882,13 @@
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5881,7 +5902,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5895,28 +5916,28 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>75</v>
@@ -5953,17 +5974,17 @@
         <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5975,19 +5996,19 @@
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -5995,10 +6016,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>75</v>
@@ -6011,28 +6032,28 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>75</v>
@@ -6042,7 +6063,7 @@
         <v>75</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>75</v>
@@ -6081,7 +6102,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6093,19 +6114,19 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>75</v>
@@ -6113,7 +6134,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6124,7 +6145,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>75</v>
@@ -6136,13 +6157,13 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6193,13 +6214,13 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>75</v>
@@ -6211,7 +6232,7 @@
         <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -6225,11 +6246,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6248,16 +6269,16 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6295,19 +6316,19 @@
         <v>75</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6319,13 +6340,13 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -6339,7 +6360,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6347,22 +6368,22 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>227</v>
@@ -6429,13 +6450,13 @@
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
@@ -6455,7 +6476,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6466,7 +6487,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>75</v>
@@ -6475,10 +6496,10 @@
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>235</v>
@@ -6543,13 +6564,13 @@
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>75</v>
@@ -6569,7 +6590,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6577,25 +6598,25 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>243</v>
@@ -6657,13 +6678,13 @@
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>75</v>
@@ -6683,7 +6704,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6694,7 +6715,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>75</v>
@@ -6703,20 +6724,20 @@
         <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>75</v>
@@ -6765,31 +6786,31 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>75</v>
@@ -6797,7 +6818,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6808,7 +6829,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>75</v>
@@ -6817,22 +6838,22 @@
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>75</v>
@@ -6881,31 +6902,31 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>75</v>
@@ -6913,10 +6934,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>75</v>
@@ -6929,28 +6950,28 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -6960,7 +6981,7 @@
         <v>75</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>75</v>
@@ -6975,11 +6996,11 @@
         <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
@@ -6997,7 +7018,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7009,19 +7030,19 @@
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7029,7 +7050,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7040,7 +7061,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>75</v>
@@ -7052,13 +7073,13 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7109,13 +7130,13 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
@@ -7127,7 +7148,7 @@
         <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -7141,11 +7162,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7164,16 +7185,16 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7211,19 +7232,19 @@
         <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7235,13 +7256,13 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -7255,7 +7276,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7263,22 +7284,22 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>227</v>
@@ -7345,13 +7366,13 @@
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>75</v>
@@ -7371,7 +7392,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7382,7 +7403,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>75</v>
@@ -7391,10 +7412,10 @@
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>235</v>
@@ -7459,13 +7480,13 @@
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
@@ -7485,7 +7506,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7493,25 +7514,25 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>243</v>
@@ -7573,13 +7594,13 @@
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7594,12 +7615,12 @@
         <v>247</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7610,7 +7631,7 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>75</v>
@@ -7619,20 +7640,20 @@
         <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>75</v>
@@ -7681,31 +7702,31 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7713,7 +7734,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7724,7 +7745,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>75</v>
@@ -7733,22 +7754,22 @@
         <v>75</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>75</v>
@@ -7797,31 +7818,31 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7829,7 +7850,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7840,31 +7861,31 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>75</v>
@@ -7913,39 +7934,39 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>75</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7956,7 +7977,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>75</v>
@@ -7965,16 +7986,16 @@
         <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8025,25 +8046,25 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -8057,7 +8078,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8071,7 +8092,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -8080,16 +8101,16 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8139,7 +8160,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8151,13 +8172,13 @@
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -8166,12 +8187,12 @@
         <v>75</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>75</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8182,7 +8203,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>75</v>
@@ -8194,13 +8215,13 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8251,13 +8272,13 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>75</v>
@@ -8269,7 +8290,7 @@
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -8283,11 +8304,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8306,16 +8327,16 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8365,7 +8386,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8377,13 +8398,13 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -8397,11 +8418,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8414,25 +8435,25 @@
         <v>75</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>75</v>
@@ -8481,7 +8502,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -8493,13 +8514,13 @@
         <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -8513,7 +8534,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8521,10 +8542,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>75</v>
@@ -8536,17 +8557,17 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>75</v>
@@ -8583,41 +8604,41 @@
         <v>75</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>75</v>
@@ -8625,23 +8646,23 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8650,17 +8671,17 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>75</v>
@@ -8709,31 +8730,31 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -8741,7 +8762,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8752,7 +8773,7 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>75</v>
@@ -8764,13 +8785,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8821,13 +8842,13 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>75</v>
@@ -8839,7 +8860,7 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8853,11 +8874,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8876,16 +8897,16 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8923,19 +8944,19 @@
         <v>75</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8947,13 +8968,13 @@
         <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8967,7 +8988,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8981,28 +9002,28 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -9039,17 +9060,17 @@
         <v>75</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9061,19 +9082,19 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>75</v>
@@ -9081,10 +9102,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>75</v>
@@ -9094,31 +9115,31 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>75</v>
@@ -9128,7 +9149,7 @@
         <v>75</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>75</v>
@@ -9143,11 +9164,11 @@
         <v>75</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -9165,7 +9186,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9177,19 +9198,19 @@
         <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>75</v>
@@ -9197,7 +9218,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9208,7 +9229,7 @@
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>75</v>
@@ -9220,13 +9241,13 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9277,13 +9298,13 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>75</v>
@@ -9295,7 +9316,7 @@
         <v>75</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>75</v>
@@ -9309,11 +9330,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9332,16 +9353,16 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9379,19 +9400,19 @@
         <v>75</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -9403,13 +9424,13 @@
         <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>75</v>
@@ -9423,7 +9444,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9431,22 +9452,22 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>227</v>
@@ -9513,13 +9534,13 @@
         <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>75</v>
@@ -9539,7 +9560,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9550,7 +9571,7 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>75</v>
@@ -9559,10 +9580,10 @@
         <v>75</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>235</v>
@@ -9627,13 +9648,13 @@
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>75</v>
@@ -9653,7 +9674,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9661,25 +9682,25 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>243</v>
@@ -9741,13 +9762,13 @@
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>75</v>
@@ -9767,7 +9788,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9778,7 +9799,7 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>75</v>
@@ -9787,20 +9808,20 @@
         <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>75</v>
@@ -9849,39 +9870,39 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>75</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9892,7 +9913,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>75</v>
@@ -9901,22 +9922,22 @@
         <v>75</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>75</v>
@@ -9965,31 +9986,31 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>75</v>
@@ -9997,10 +10018,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>75</v>
@@ -10010,31 +10031,31 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>75</v>
@@ -10044,7 +10065,7 @@
         <v>75</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>75</v>
@@ -10083,7 +10104,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10095,19 +10116,19 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>75</v>
@@ -10115,7 +10136,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10126,7 +10147,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>75</v>
@@ -10138,13 +10159,13 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10195,13 +10216,13 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>75</v>
@@ -10213,7 +10234,7 @@
         <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>75</v>
@@ -10227,11 +10248,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10250,16 +10271,16 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10297,19 +10318,19 @@
         <v>75</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -10321,13 +10342,13 @@
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>75</v>
@@ -10341,7 +10362,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10349,22 +10370,22 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>227</v>
@@ -10431,13 +10452,13 @@
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>75</v>
@@ -10457,7 +10478,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10468,7 +10489,7 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>75</v>
@@ -10477,10 +10498,10 @@
         <v>75</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>235</v>
@@ -10545,13 +10566,13 @@
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>75</v>
@@ -10571,7 +10592,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10579,25 +10600,25 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>243</v>
@@ -10659,13 +10680,13 @@
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>75</v>
@@ -10685,7 +10706,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10696,7 +10717,7 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>75</v>
@@ -10705,20 +10726,20 @@
         <v>75</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>75</v>
@@ -10767,39 +10788,39 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>75</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10810,7 +10831,7 @@
         <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>75</v>
@@ -10819,22 +10840,22 @@
         <v>75</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>75</v>
@@ -10883,31 +10904,31 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>75</v>
@@ -10915,7 +10936,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10926,31 +10947,31 @@
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>362</v>
+        <v>267</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>75</v>
@@ -10999,39 +11020,39 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>75</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11042,7 +11063,7 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>75</v>
@@ -11054,17 +11075,17 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>75</v>
@@ -11113,25 +11134,25 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -11145,7 +11166,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11156,10 +11177,10 @@
         <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>75</v>
@@ -11168,13 +11189,13 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11225,39 +11246,39 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>75</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11268,7 +11289,7 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>75</v>
@@ -11280,13 +11301,13 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11337,13 +11358,13 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
@@ -11355,7 +11376,7 @@
         <v>75</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>75</v>
@@ -11369,11 +11390,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11392,16 +11413,16 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11439,19 +11460,19 @@
         <v>75</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -11463,13 +11484,13 @@
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>75</v>
@@ -11483,10 +11504,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>75</v>
@@ -11499,7 +11520,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -11508,13 +11529,13 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11565,7 +11586,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -11577,7 +11598,7 @@
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>75</v>
@@ -11597,7 +11618,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11608,25 +11629,25 @@
         <v>76</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11677,25 +11698,25 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>75</v>
@@ -11709,7 +11730,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11720,25 +11741,25 @@
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11789,25 +11810,25 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
@@ -11821,7 +11842,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11832,7 +11853,7 @@
         <v>76</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>75</v>
@@ -11844,13 +11865,13 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11901,25 +11922,25 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11933,7 +11954,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11944,7 +11965,7 @@
         <v>76</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>75</v>
@@ -11956,13 +11977,13 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12013,13 +12034,13 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
@@ -12031,7 +12052,7 @@
         <v>75</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>75</v>
@@ -12045,11 +12066,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12068,16 +12089,16 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12127,7 +12148,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
@@ -12139,13 +12160,13 @@
         <v>75</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>75</v>
@@ -12159,11 +12180,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12176,25 +12197,25 @@
         <v>75</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>75</v>
@@ -12243,7 +12264,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -12255,13 +12276,13 @@
         <v>75</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>75</v>
@@ -12275,7 +12296,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12286,7 +12307,7 @@
         <v>76</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>75</v>
@@ -12298,13 +12319,13 @@
         <v>75</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12355,31 +12376,31 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>75</v>
@@ -12387,7 +12408,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12398,7 +12419,7 @@
         <v>76</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>75</v>
@@ -12410,13 +12431,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12467,31 +12488,31 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-mp4p-medikation.xlsx
+++ b/StructureDefinition-mp4p-medikation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T18:19:37+00:00</t>
+    <t>2021-12-09T19:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medikation.xlsx
+++ b/StructureDefinition-mp4p-medikation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T19:18:46+00:00</t>
+    <t>2022-01-05T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medikation.xlsx
+++ b/StructureDefinition-mp4p-medikation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:37:11+00:00</t>
+    <t>2022-01-05T14:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medikation.xlsx
+++ b/StructureDefinition-mp4p-medikation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:53:01+00:00</t>
+    <t>2022-05-24T10:16:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>85</v>

--- a/StructureDefinition-mp4p-medikation.xlsx
+++ b/StructureDefinition-mp4p-medikation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:16:42+00:00</t>
+    <t>2022-09-05T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medikation.xlsx
+++ b/StructureDefinition-mp4p-medikation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:28:19+00:00</t>
+    <t>2022-11-28T18:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>This resource is primarily used for the identification and definition of a medication for the purposes of prescribing, dispensing, and administering a medication as well as for making statements about medication use.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -286,45 +282,49 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Medication.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Medication.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Medication.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Medication.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -375,10 +375,6 @@
   </si>
   <si>
     <t>Medication.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1635,39 +1631,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="47.53125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.91015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="98.9296875" customWidth="true" bestFit="true"/>
@@ -1892,27 +1888,27 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1923,28 +1919,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1994,13 +1990,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -2026,7 +2022,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2037,25 +2033,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2106,19 +2102,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -2138,7 +2134,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2149,7 +2145,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -2161,7 +2157,7 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>99</v>
@@ -2224,7 +2220,7 @@
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -2375,28 +2371,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2446,19 +2442,19 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -2478,7 +2474,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2489,28 +2485,28 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2560,19 +2556,19 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
@@ -2592,7 +2588,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2603,28 +2599,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2674,19 +2670,19 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
@@ -2706,7 +2702,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2720,25 +2716,25 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2788,7 +2784,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2800,7 +2796,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -2820,7 +2816,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2840,19 +2836,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2878,31 +2874,31 @@
         <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2914,7 +2910,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -2934,7 +2930,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2954,19 +2950,19 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2992,31 +2988,31 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3028,7 +3024,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -3048,7 +3044,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3059,28 +3055,28 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3130,19 +3126,19 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
@@ -3162,7 +3158,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3173,11 +3169,11 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
@@ -3185,16 +3181,16 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3220,43 +3216,43 @@
         <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -3276,18 +3272,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>75</v>
@@ -3299,16 +3295,16 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3358,25 +3354,25 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3390,11 +3386,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3413,16 +3409,16 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3472,7 +3468,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3490,7 +3486,7 @@
         <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3504,7 +3500,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3533,7 +3529,7 @@
         <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>108</v>
@@ -3586,7 +3582,7 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3604,7 +3600,7 @@
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3618,7 +3614,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3635,7 +3631,7 @@
         <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>75</v>
@@ -3644,16 +3640,16 @@
         <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -3702,7 +3698,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3720,7 +3716,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3734,7 +3730,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3754,19 +3750,19 @@
         <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3816,7 +3812,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3828,16 +3824,16 @@
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -3848,7 +3844,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3859,28 +3855,28 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3906,55 +3902,55 @@
         <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>75</v>
@@ -3962,7 +3958,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3973,7 +3969,7 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>75</v>
@@ -3985,7 +3981,7 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>99</v>
@@ -4048,7 +4044,7 @@
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
@@ -4074,7 +4070,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4188,7 +4184,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4196,34 +4192,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>75</v>
@@ -4260,7 +4256,7 @@
         <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
@@ -4270,7 +4266,7 @@
         <v>111</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4282,19 +4278,19 @@
         <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
@@ -4302,44 +4298,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>75</v>
@@ -4349,7 +4345,7 @@
         <v>75</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>75</v>
@@ -4388,7 +4384,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4400,19 +4396,19 @@
         <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -4420,7 +4416,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4431,7 +4427,7 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>75</v>
@@ -4443,7 +4439,7 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>99</v>
@@ -4506,7 +4502,7 @@
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
@@ -4532,7 +4528,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4646,7 +4642,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4654,34 +4650,34 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="H27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -4730,31 +4726,31 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>75</v>
@@ -4762,7 +4758,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4773,28 +4769,28 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4844,31 +4840,31 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>75</v>
@@ -4876,7 +4872,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4884,32 +4880,32 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="H29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>75</v>
@@ -4958,39 +4954,39 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5001,29 +4997,29 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>75</v>
@@ -5072,39 +5068,39 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5115,31 +5111,31 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>75</v>
@@ -5188,31 +5184,31 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>75</v>
@@ -5220,7 +5216,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5231,31 +5227,31 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>75</v>
@@ -5304,39 +5300,39 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AN32" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5347,28 +5343,28 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5394,49 +5390,49 @@
         <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5450,7 +5446,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5461,25 +5457,25 @@
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5530,31 +5526,31 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -5562,7 +5558,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5573,11 +5569,11 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5585,16 +5581,16 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5620,55 +5616,55 @@
         <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5676,7 +5672,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5687,7 +5683,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>75</v>
@@ -5699,7 +5695,7 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>99</v>
@@ -5762,7 +5758,7 @@
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
@@ -5788,7 +5784,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5902,7 +5898,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5916,28 +5912,28 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>75</v>
@@ -5974,7 +5970,7 @@
         <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
@@ -5984,7 +5980,7 @@
         <v>111</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -5996,19 +5992,19 @@
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6016,10 +6012,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>75</v>
@@ -6032,28 +6028,28 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>75</v>
@@ -6063,7 +6059,7 @@
         <v>75</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>75</v>
@@ -6102,7 +6098,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6114,19 +6110,19 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>75</v>
@@ -6134,7 +6130,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6145,7 +6141,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>75</v>
@@ -6157,7 +6153,7 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>99</v>
@@ -6220,7 +6216,7 @@
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>75</v>
@@ -6246,7 +6242,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6360,7 +6356,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6368,34 +6364,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="H42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>75</v>
@@ -6444,31 +6440,31 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -6476,7 +6472,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6487,28 +6483,28 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6558,31 +6554,31 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>75</v>
@@ -6590,7 +6586,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6598,32 +6594,32 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="H44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>75</v>
@@ -6672,31 +6668,31 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>75</v>
@@ -6704,7 +6700,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6715,29 +6711,29 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>75</v>
@@ -6786,31 +6782,31 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>75</v>
@@ -6818,7 +6814,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6829,31 +6825,31 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>75</v>
@@ -6902,31 +6898,31 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>75</v>
@@ -6934,10 +6930,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>75</v>
@@ -6950,28 +6946,28 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -6981,7 +6977,7 @@
         <v>75</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>75</v>
@@ -6996,11 +6992,11 @@
         <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
@@ -7018,7 +7014,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7030,19 +7026,19 @@
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>75</v>
@@ -7050,7 +7046,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7061,7 +7057,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>75</v>
@@ -7073,7 +7069,7 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>99</v>
@@ -7136,7 +7132,7 @@
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
@@ -7162,7 +7158,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7276,7 +7272,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7284,34 +7280,34 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="H50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>75</v>
@@ -7360,31 +7356,31 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>75</v>
@@ -7392,7 +7388,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7403,28 +7399,28 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7474,31 +7470,31 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>75</v>
@@ -7506,7 +7502,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7514,32 +7510,32 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -7588,39 +7584,39 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7631,29 +7627,29 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>75</v>
@@ -7702,31 +7698,31 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -7734,7 +7730,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7745,31 +7741,31 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>75</v>
@@ -7818,31 +7814,31 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -7850,7 +7846,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7861,31 +7857,31 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="M55" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>75</v>
@@ -7934,39 +7930,39 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AN55" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7977,25 +7973,25 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J56" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8046,25 +8042,25 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -8078,7 +8074,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8092,7 +8088,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -8101,16 +8097,16 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8160,7 +8156,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8172,27 +8168,27 @@
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8203,7 +8199,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>75</v>
@@ -8215,7 +8211,7 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>99</v>
@@ -8278,7 +8274,7 @@
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>75</v>
@@ -8304,7 +8300,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8418,11 +8414,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8435,25 +8431,25 @@
         <v>75</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>75</v>
@@ -8502,7 +8498,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -8520,7 +8516,7 @@
         <v>75</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -8534,7 +8530,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8542,10 +8538,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>75</v>
@@ -8557,17 +8553,17 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>75</v>
@@ -8604,41 +8600,41 @@
         <v>75</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD61" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AE61" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>75</v>
@@ -8646,24 +8642,24 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
       </c>
@@ -8671,17 +8667,17 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>75</v>
@@ -8730,31 +8726,31 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -8762,7 +8758,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8773,7 +8769,7 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>75</v>
@@ -8785,7 +8781,7 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>99</v>
@@ -8848,7 +8844,7 @@
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>75</v>
@@ -8874,7 +8870,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8988,7 +8984,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9002,28 +8998,28 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -9060,7 +9056,7 @@
         <v>75</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
@@ -9070,7 +9066,7 @@
         <v>111</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9082,19 +9078,19 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>75</v>
@@ -9102,10 +9098,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>75</v>
@@ -9115,31 +9111,31 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>75</v>
@@ -9149,7 +9145,7 @@
         <v>75</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>75</v>
@@ -9164,11 +9160,11 @@
         <v>75</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -9186,7 +9182,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9198,19 +9194,19 @@
         <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>75</v>
@@ -9218,7 +9214,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9229,7 +9225,7 @@
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>75</v>
@@ -9241,7 +9237,7 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>99</v>
@@ -9304,7 +9300,7 @@
         <v>76</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>75</v>
@@ -9330,7 +9326,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9444,7 +9440,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9452,34 +9448,34 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G69" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>75</v>
@@ -9528,31 +9524,31 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>75</v>
@@ -9560,7 +9556,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9571,28 +9567,28 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9642,31 +9638,31 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -9674,7 +9670,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9682,32 +9678,32 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G71" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>75</v>
@@ -9756,31 +9752,31 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AF71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>75</v>
@@ -9788,7 +9784,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9799,29 +9795,29 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>75</v>
@@ -9870,39 +9866,39 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="AN72" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9913,31 +9909,31 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J73" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>75</v>
@@ -9986,31 +9982,31 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>75</v>
@@ -10018,10 +10014,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>75</v>
@@ -10031,31 +10027,31 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>75</v>
@@ -10065,7 +10061,7 @@
         <v>75</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>75</v>
@@ -10104,7 +10100,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10116,19 +10112,19 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>75</v>
@@ -10136,7 +10132,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10147,7 +10143,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>75</v>
@@ -10159,7 +10155,7 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>99</v>
@@ -10222,7 +10218,7 @@
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>75</v>
@@ -10248,7 +10244,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10362,7 +10358,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10370,34 +10366,34 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G77" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>75</v>
@@ -10446,31 +10442,31 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AF77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>75</v>
@@ -10478,7 +10474,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10489,28 +10485,28 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10560,31 +10556,31 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>75</v>
@@ -10592,7 +10588,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10600,32 +10596,32 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G79" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="H79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>75</v>
@@ -10674,31 +10670,31 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>75</v>
@@ -10706,7 +10702,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10717,29 +10713,29 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>75</v>
@@ -10788,39 +10784,39 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="AN80" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10831,31 +10827,31 @@
         <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J81" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>75</v>
@@ -10904,31 +10900,31 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AL81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>75</v>
@@ -10936,7 +10932,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10947,31 +10943,31 @@
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G82" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M82" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>75</v>
@@ -11020,39 +11016,39 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AF82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK82" t="s" s="2">
+      <c r="AL82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AN82" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11063,7 +11059,7 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>75</v>
@@ -11075,17 +11071,17 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>75</v>
@@ -11134,25 +11130,25 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -11166,7 +11162,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11177,11 +11173,11 @@
         <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H84" t="s" s="2">
         <v>75</v>
       </c>
@@ -11189,13 +11185,13 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11246,39 +11242,39 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK84" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11289,7 +11285,7 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>75</v>
@@ -11301,7 +11297,7 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>99</v>
@@ -11364,7 +11360,7 @@
         <v>76</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
@@ -11390,7 +11386,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11504,10 +11500,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>75</v>
@@ -11520,7 +11516,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -11529,13 +11525,13 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11618,7 +11614,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11629,25 +11625,25 @@
         <v>76</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G88" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G88" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11698,25 +11694,25 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>75</v>
@@ -11730,7 +11726,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11741,25 +11737,25 @@
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11810,25 +11806,25 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>75</v>
@@ -11842,7 +11838,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11853,7 +11849,7 @@
         <v>76</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>75</v>
@@ -11865,13 +11861,13 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11922,25 +11918,25 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11954,7 +11950,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11965,7 +11961,7 @@
         <v>76</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>75</v>
@@ -11977,7 +11973,7 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>99</v>
@@ -12040,7 +12036,7 @@
         <v>76</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
@@ -12066,7 +12062,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12180,11 +12176,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12197,25 +12193,25 @@
         <v>75</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>75</v>
@@ -12264,7 +12260,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -12282,7 +12278,7 @@
         <v>75</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>75</v>
@@ -12296,7 +12292,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12307,7 +12303,7 @@
         <v>76</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>75</v>
@@ -12319,13 +12315,13 @@
         <v>75</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12376,31 +12372,31 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>75</v>
@@ -12408,7 +12404,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12419,7 +12415,7 @@
         <v>76</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>75</v>
@@ -12431,13 +12427,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12488,31 +12484,31 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-mp4p-medikation.xlsx
+++ b/StructureDefinition-mp4p-medikation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:22:11+00:00</t>
+    <t>2022-11-28T18:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
